--- a/cn_companies_by_transition.xlsx
+++ b/cn_companies_by_transition.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,110 +471,75 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aviation Industry Corp. of China</t>
+          <t>Bank of New York Mellon</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bank of New York Mellon</t>
+          <t>EXOR Group</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>China National Nuclear</t>
+          <t>General Electric</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>China State Shipbuilding</t>
+          <t>JFE Holdings</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EXOR Group</t>
+          <t>Jabil</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>General Electric</t>
+          <t>L'Oreal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JFE Holdings</t>
+          <t>Nippon Steel Corporation</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jabil</t>
+          <t>Nippon Telegraph and Telephone</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L'Oreal</t>
+          <t>Samsung C&amp;T</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nippon Steel Corporation</t>
+          <t>Subaru</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
-        <is>
-          <t>Nippon Telegraph and Telephone</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Samsung C&amp;T</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Shougang Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sinochem Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Subaru</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
         <is>
           <t>Vibra Energia</t>
         </is>
@@ -591,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,103 +588,138 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bunge</t>
+          <t>Aviation Industry Corp. of China</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caixa Economica Federal</t>
+          <t>Bunge</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Centrica</t>
+          <t>Caixa Economica Federal</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>China Electronics Technology Group</t>
+          <t>Centrica</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Credit Mutuel Group</t>
+          <t>China Electronics Technology Group</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fomento Economico Mexicano</t>
+          <t>China National Nuclear</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jeronimo Martins</t>
+          <t>China State Shipbuilding</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Korea Gas</t>
+          <t>Credit Mutuel Group</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nestle</t>
+          <t>Fomento Economico Mexicano</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nucor</t>
+          <t>Jeronimo Martins</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Power Corp. of Canada</t>
+          <t>Korea Gas</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rajesh Exports</t>
+          <t>Nestle</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shaanxi Construction Engineering Holding</t>
+          <t>Nucor</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shanxi Coking Coal Group</t>
+          <t>Power Corp. of Canada</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
+        <is>
+          <t>Rajesh Exports</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shaanxi Construction Engineering Holding</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shanxi Coking Coal Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shougang Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sinochem Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Truist Financial</t>
         </is>
@@ -736,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,495 +782,418 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>Bank of China</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bank of China</t>
+          <t>Bosch Group</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bosch Group</t>
+          <t>COSCO Shipping</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CITIC Group</t>
+          <t>Carrefour</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COSCO Shipping</t>
+          <t>Charter Communications</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carrefour</t>
+          <t>China State Construction Engineering</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Charter Communications</t>
+          <t>Cigna</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>China Huaneng Group</t>
+          <t>Comcast</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>China Merchants Bank</t>
+          <t>Continental</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>China State Construction Engineering</t>
+          <t>Daimler Truck Holding</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Daiwa House Industry</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>Denso</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Continental</t>
+          <t>Deutsche Telekom</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daimler Truck Holding</t>
+          <t>Dow</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Daiwa House Industry</t>
+          <t>E.ON</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Denso</t>
+          <t>ENEOS Holdings</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Deutsche Telekom</t>
+          <t>Eli Lilly</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dow</t>
+          <t>Energie Baden-Wurttemberg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>E.ON</t>
+          <t>FedEx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENEOS Holdings</t>
+          <t>Ford Motor</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eli Lilly</t>
+          <t>General Motors</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Energie Baden-Wurttemberg</t>
+          <t>Guangzhou Automobile Industry Group</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FedEx</t>
+          <t>Hitachi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ford Motor</t>
+          <t>Honda Motor</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GS Caltex</t>
+          <t>Honeywell International</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>General Motors</t>
+          <t>Hyundai Motor</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Guangzhou Automobile Industry Group</t>
+          <t>Idemitsu Kosan</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hitachi</t>
+          <t>Japan Post Holdings</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Honda Motor</t>
+          <t>Koc Holding</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Honeywell International</t>
+          <t>LG Electronics</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hyundai Motor</t>
+          <t>Linde</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Idemitsu Kosan</t>
+          <t>Lufthansa Group</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Industrial Bank</t>
+          <t>Luxshare Precision Industry</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Japan Post Holdings</t>
+          <t>Mapfre Group</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jiangxi Copper</t>
+          <t>Mazda Motor</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Mercedes-Benz Group</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Koc Holding</t>
+          <t>Microsoft</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Korea Electric Power</t>
+          <t>Nissan Motor</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LG Electronics</t>
+          <t>Ping An Insurance</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Linde</t>
+          <t>Progressive</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lufthansa Group</t>
+          <t>Quanta Computer</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luxshare Precision Industry</t>
+          <t>Rosneft Oil</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mapfre Group</t>
+          <t>Sberbank</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mazda Motor</t>
+          <t>Societe Generale</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mercedes-Benz Group</t>
+          <t>State Bank of India</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Sumitomo</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nissan Motor</t>
+          <t>Suzuki Motor</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ping An Insurance</t>
+          <t>Tencent Holdings</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Progressive</t>
+          <t>ThyssenKrupp</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Quanta Computer</t>
+          <t>Tokyo Electric Power</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Toyota Motor</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rosneft Oil</t>
+          <t>Trafigura Group</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sberbank</t>
+          <t>Travelers</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sinopec Group</t>
+          <t>United Parcel Service</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Societe Generale</t>
+          <t>Valero Energy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Volkswagen</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sumitomo</t>
+          <t>Xiaomi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Suzuki Motor</t>
+          <t>ZF Friedrichshafen</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tencent Holdings</t>
+          <t>Zhejiang Geely Holding Group</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
-        <is>
-          <t>ThyssenKrupp</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Tokyo Electric Power</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Toyota Motor</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Trafigura Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Travelers</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>United Parcel Service</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Valero Energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Xiaomi</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ZF Friedrichshafen</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Zhejiang Geely Holding Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
         <is>
           <t>Zijin Mining Group</t>
         </is>
@@ -1287,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A143"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,971 +1249,614 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Agricultural Bank of China</t>
+          <t>Allianz</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Allianz</t>
+          <t>American Express</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aluminum Corp. of China</t>
+          <t>ArcelorMittal</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>American Express</t>
+          <t>BMW Group</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ansteel Group</t>
+          <t>Banco Bilbao Vizcaya Argentaria</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ArcelorMittal</t>
+          <t>Banco Bradesco</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BMW Group</t>
+          <t>Banco Santander</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Banco Bilbao Vizcaya Argentaria</t>
+          <t>Banco do Brasil</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Banco Bradesco</t>
+          <t>Bank of America</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Banco Santander</t>
+          <t>Bank of Montreal</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Banco do Brasil</t>
+          <t>Bank of Nova Scotia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Bayer</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bank of Communications</t>
+          <t>Best Buy</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bank of Montreal</t>
+          <t>Boeing</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bank of Nova Scotia</t>
+          <t>CRRC Group</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bayer</t>
+          <t>CVS Health</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Best Buy</t>
+          <t>Canadian Imperial Bank of Commerce</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>Capital One Financial</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COFCO</t>
+          <t>China Baowu Steel Group</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CRRC Group</t>
+          <t>China National Offshore Oil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Commonwealth Bank of Australia</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Canadian Imperial Bank of Commerce</t>
+          <t>Compass Group</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Capital One Financial</t>
+          <t>Contemporary Amperex Technology</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>China Baowu Steel Group</t>
+          <t>Credit Agricole</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>China Communications Construction</t>
+          <t>DZ Bank</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>China Construction Bank</t>
+          <t>Delta Air Lines</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>China Datang</t>
+          <t>Deutsche Bahn</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>China Energy Engineering Group</t>
+          <t>ENI</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>China Energy Investment</t>
+          <t>Elevance Health</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>China FAW Group</t>
+          <t>Equinor</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>China Huadian</t>
+          <t>General Dynamics</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>China Minmetals</t>
+          <t>Goldman Sachs Group</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>China Minsheng Banking</t>
+          <t>Groupe BPCE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>China Mobile Communications</t>
+          <t>HBIS Group</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>China National Coal Group</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>China National Offshore Oil</t>
+          <t>Heineken</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>China National Petroleum</t>
+          <t>ING Group</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>China Pacific Insurance (Group)</t>
+          <t>Iberdrola</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>China Poly Group</t>
+          <t>Ingka Group</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>China Railway Engineering Group</t>
+          <t>Intesa Sanpaolo</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>China Resources</t>
+          <t>JPMorgan Chase</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>China Southern Power Grid</t>
+          <t>Johnson &amp; Johnson</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>China Telecommunications</t>
+          <t>KDDI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>China United Network Communications</t>
+          <t>LG Chem</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>China Vanke</t>
+          <t>Landesbank Baden-Wurttemberg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Commonwealth Bank of Australia</t>
+          <t>Merck</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Compass Group</t>
+          <t>MetLife</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Contemporary Amperex Technology</t>
+          <t>Metro</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Credit Agricole</t>
+          <t>Migros Group</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DZ Bank</t>
+          <t>Mizuho Financial Group</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dai-ichi Life Holdings</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Delta Air Lines</t>
+          <t>Munich Re Group</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Deutsche Bahn</t>
+          <t>National Australia Bank</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Dongfeng Motor</t>
+          <t>Nationwide</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENI</t>
+          <t>Novartis</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Elevance Health</t>
+          <t>PBF Energy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Equinor</t>
+          <t>POSCO Holdings</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>General Dynamics</t>
+          <t>PTT</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Goldman Sachs Group</t>
+          <t>Petrobras</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Groupe BPCE</t>
+          <t>Pfizer</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBIS Group</t>
+          <t>Philip Morris International</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Procter &amp; Gamble</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Haier Smart Home</t>
+          <t>Prudential Financial</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hanwha</t>
+          <t>Royal Bank of Canada</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Heineken</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ING Group</t>
+          <t>SK</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Iberdrola</t>
+          <t>SNCF Group</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Industrial &amp; Commercial Bank of China</t>
+          <t>Saint-Gobain</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ingka Group</t>
+          <t>Sanofi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Itau Unibanco Holding</t>
+          <t>Siemens</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Itochu</t>
+          <t>Siemens Energy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>JPMorgan Chase</t>
+          <t>SoftBank Group</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jinchuan Group</t>
+          <t>Sompo Holdings</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Jingye Group</t>
+          <t>Swiss Re</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Johnson &amp; Johnson</t>
+          <t>Talanx</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KDDI</t>
+          <t>Telefonica</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>LG Chem</t>
+          <t>Tesco</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Landesbank Baden-Wurttemberg</t>
+          <t>Tokio Marine Holdings</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Meituan</t>
+          <t>Tongwei Group</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Merck</t>
+          <t>Toronto-Dominion Bank</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MetLife</t>
+          <t>TotalEnergies</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Metro</t>
+          <t>Uniper</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Midea Group</t>
+          <t>Vinci</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Migros Group</t>
+          <t>Visa</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mitsubishi UFJ Financial Group</t>
+          <t>Volvo</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mizuho Financial Group</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
-        <is>
-          <t>Morgan Stanley</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Munich Re Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>National Australia Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Nationwide</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Novartis</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Orlen</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>PBF Energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>POSCO Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>PTT</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Panasonic Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>People's Insurance Co. of China</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Petrobras</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Pfizer</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Philip Morris International</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>PowerChina</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Procter &amp; Gamble</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Prudential Financial</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Royal Bank of Canada</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>S.F. Holding</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SAIC Motor</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SAP</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SNCF Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Saint-Gobain</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Sanofi</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Schneider Electric</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Shandong Energy Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Shanghai Pharmaceuticals Holding</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Shanghai Pudong Development Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Siemens</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Siemens Energy</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Sinopharm</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SoftBank Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Sompo Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Sony</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>State Power Investment</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Swiss Re</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Talanx</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Telefonica</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Tesco</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Tokio Marine Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Tongwei Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Toronto-Dominion Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>TotalEnergies</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Toyota Tsusho</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Uniper</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Vinci</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Volvo</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Wells Fargo</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Xiamen ITG Holding Group</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
         <is>
           <t>Zurich Insurance Group</t>
         </is>
@@ -2307,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,68 +1891,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>China Railway Construction</t>
+          <t>BYD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HD Hyundai</t>
+          <t>CITIC Group</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HDFC Bank</t>
+          <t>China Huaneng Group</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hunan Iron &amp; Steel Group</t>
+          <t>China Merchants Bank</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phoenix Pharma</t>
+          <t>China Railway Construction</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shaanxi Coal &amp; Chemical Industry</t>
+          <t>GS Caltex</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shandong Weiqiao Pioneering Group</t>
+          <t>HD Hyundai</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TongLing Nonferrous Metals Group</t>
+          <t>HDFC Bank</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Woolworths Group</t>
+          <t>Hunan Iron &amp; Steel Group</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
+        <is>
+          <t>Industrial Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jiangxi Copper</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Korea Electric Power</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Phoenix Pharma</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shaanxi Coal &amp; Chemical Industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shandong Weiqiao Pioneering Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sinopec Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TongLing Nonferrous Metals Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Woolworths Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>X5 Retail Group</t>
         </is>
@@ -2403,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A238"/>
+  <dimension ref="A1:A289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2470,1608 +2113,1965 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Air France-KLM Group</t>
+          <t>Agricultural Bank of China</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Airbus</t>
+          <t>Air France-KLM Group</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Albertsons</t>
+          <t>Airbus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Allstate</t>
+          <t>Albertsons</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alphabet</t>
+          <t>Allstate</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Alphabet</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>America Movil</t>
+          <t>Aluminum Corp. of China</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>American Airlines Group</t>
+          <t>Amazon</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anheuser-Busch InBev</t>
+          <t>America Movil</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Archer Daniels Midland</t>
+          <t>American Airlines Group</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Assicurazioni Generali</t>
+          <t>Anheuser-Busch InBev</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AstraZeneca</t>
+          <t>Ansteel Group</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BASF</t>
+          <t>Archer Daniels Midland</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BHP Group</t>
+          <t>Assicurazioni Generali</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>AstraZeneca</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Barclays</t>
+          <t>BASF</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Beijing Automotive Group</t>
+          <t>BHP Group</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Beijing Jianlong Heavy Industry Group</t>
+          <t>BP</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Berkshire Hathaway</t>
+          <t>Bank of Communications</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bharat Petroleum</t>
+          <t>Barclays</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bouygues</t>
+          <t>Beijing Automotive Group</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bristol-Myers Squibb</t>
+          <t>Beijing Jianlong Heavy Industry Group</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>British American Tobacco</t>
+          <t>Berkshire Hathaway</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Broadcom</t>
+          <t>Bharat Petroleum</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brookfield</t>
+          <t>Bouygues</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CFE</t>
+          <t>Bristol-Myers Squibb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>British American Tobacco</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CK Hutchison Holdings</t>
+          <t>Broadcom</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CPC</t>
+          <t>Brookfield</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CRH</t>
+          <t>CFE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cardinal Health</t>
+          <t>CHS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Caterpillar</t>
+          <t>CK Hutchison Holdings</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cencora</t>
+          <t>COFCO</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cenovus Energy</t>
+          <t>CPC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Centene</t>
+          <t>CRH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chery Holding Group</t>
+          <t>Cardinal Health</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chevron</t>
+          <t>Caterpillar</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>China Electronics</t>
+          <t>Cencora</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>China Life Insurance</t>
+          <t>Cenovus Energy</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>China National Aviation Fuel Group</t>
+          <t>Centene</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>China National Building Material Group</t>
+          <t>Chery Holding Group</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>China North Industries Group</t>
+          <t>Chevron</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>China Post Group</t>
+          <t>China Communications Construction</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>China South Industries Group</t>
+          <t>China Construction Bank</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Christian Dior</t>
+          <t>China Datang</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chubb</t>
+          <t>China Electronics</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cisco Systems</t>
+          <t>China Energy Engineering Group</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Citigroup</t>
+          <t>China Energy Investment</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>China FAW Group</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ConocoPhillips</t>
+          <t>China Huadian</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Coop Group</t>
+          <t>China Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Costco Wholesale</t>
+          <t>China Minmetals</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>China Minsheng Banking</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D.R. Horton</t>
+          <t>China Mobile Communications</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DHL Group</t>
+          <t>China National Aviation Fuel Group</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Deere</t>
+          <t>China National Building Material Group</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>China National Coal Group</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Deutsche Bank</t>
+          <t>China National Petroleum</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dollar General</t>
+          <t>China North Industries Group</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ELO Group</t>
+          <t>China Pacific Insurance (Group)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ecopetrol</t>
+          <t>China Poly Group</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Edeka Zentrale</t>
+          <t>China Post Group</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Electricite de France</t>
+          <t>China Railway Engineering Group</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Emirates Group</t>
+          <t>China Resources</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Enbridge</t>
+          <t>China South Industries Group</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Enel</t>
+          <t>China Southern Power Grid</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Energy Transfer</t>
+          <t>China Telecommunications</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Engie</t>
+          <t>China United Network Communications</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Enterprise Products Partners</t>
+          <t>China Vanke</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Exxon Mobil</t>
+          <t>Christian Dior</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fairfax Financial Holdings</t>
+          <t>Chubb</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Fannie Mae</t>
+          <t>Cisco Systems</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Citigroup</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gazprom</t>
+          <t>ConocoPhillips</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>George Weston</t>
+          <t>Coop Group</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Glencore</t>
+          <t>Costco Wholesale</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Greenland Holding Group</t>
+          <t>Cummins</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Guangdong Guangxin Holdings</t>
+          <t>D.R. Horton</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Guangxi Investment Group</t>
+          <t>DHL Group</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Guangzhou Industrial Investment Holdings</t>
+          <t>Dai-ichi Life Holdings</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Guangzhou Municipal Construction Group</t>
+          <t>Deere</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Guangzhou Pharmaceutical Holdings</t>
+          <t>Dell Technologies</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HCA Healthcare</t>
+          <t>Deutsche Bank</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HSBC Holdings</t>
+          <t>Dollar General</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hailiang Group</t>
+          <t>Dongfeng Motor</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hangzhou Industrial Investment Group</t>
+          <t>ELO Group</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Hangzhou Iron and Steel Group</t>
+          <t>Ecopetrol</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hengli Group</t>
+          <t>Edeka Zentrale</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Home Depot</t>
+          <t>Electricite de France</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hon Hai Precision Industry</t>
+          <t>Emirates Group</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Huawei Investment &amp; Holding</t>
+          <t>Enbridge</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Humana</t>
+          <t>Enel</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hyundai Mobis</t>
+          <t>Energy Transfer</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>Engie</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Indian Oil</t>
+          <t>Enterprise Products Partners</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Inditex</t>
+          <t>Exxon Mobil</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Fairfax Financial Holdings</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>J. Sainsbury</t>
+          <t>Fannie Mae</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>JBS</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>JD.com</t>
+          <t>GSK</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Jardine Matheson</t>
+          <t>Gazprom</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Jiangsu Shagang Group</t>
+          <t>George Weston</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Jinneng Holding Group</t>
+          <t>Glencore</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>KB Financial Group</t>
+          <t>Greenland Holding Group</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Guangdong Guangxin Holdings</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>La Poste</t>
+          <t>Guangxi Investment Group</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lennar</t>
+          <t>Guangzhou Industrial Investment Holdings</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lenovo Group</t>
+          <t>Guangzhou Municipal Construction Group</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Liberty Mutual Insurance Group</t>
+          <t>Guangzhou Pharmaceutical Holdings</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Life Insurance Corp. of India</t>
+          <t>HCA Healthcare</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lloyds Banking Group</t>
+          <t>HSBC Holdings</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lockheed Martin</t>
+          <t>Haier Smart Home</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Louis Dreyfus</t>
+          <t>Hailiang Group</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Lowe's</t>
+          <t>Hangzhou Industrial Investment Group</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lukoil</t>
+          <t>Hangzhou Iron and Steel Group</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>LyondellBasell Industries</t>
+          <t>Hanwha</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MS&amp;AD Insurance Group Holdings</t>
+          <t>Hengli Group</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Maersk Group</t>
+          <t>Home Depot</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Magna International</t>
+          <t>Hon Hai Precision Industry</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Marathon Petroleum</t>
+          <t>Huawei Investment &amp; Holding</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Marubeni</t>
+          <t>Humana</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Massachusetts Mutual Life Insurance</t>
+          <t>Hyundai Mobis</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>McKesson</t>
+          <t>IBM</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Meiji Yasuda Life Insurance</t>
+          <t>Indian Oil</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mercadona</t>
+          <t>Inditex</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Meta Platforms</t>
+          <t>Industrial &amp; Commercial Bank of China</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Intel</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mitsubishi Electric</t>
+          <t>Itau Unibanco Holding</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mitsubishi Heavy Industries</t>
+          <t>Itochu</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Mitsui</t>
+          <t>J. Sainsbury</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Molina Healthcare</t>
+          <t>JBS</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mondelez International</t>
+          <t>JD.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Jardine Matheson</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>New Hope Holding Group</t>
+          <t>Jiangsu Shagang Group</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>New York Life Insurance</t>
+          <t>Jinchuan Group</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Jingye Group</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nippon Life Insurance</t>
+          <t>Jinneng Holding Group</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Northrop Grumman</t>
+          <t>KB Financial Group</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Northwestern Mutual</t>
+          <t>Kroger</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Novo Nordisk</t>
+          <t>La Poste</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nvidia</t>
+          <t>Lennar</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>OMV Group</t>
+          <t>Lenovo Group</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Oil &amp; Natural Gas</t>
+          <t>Liberty Mutual Insurance Group</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Olam Group</t>
+          <t>Life Insurance Corp. of India</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Lloyds Banking Group</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Lockheed Martin</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PDD Holdings</t>
+          <t>Louis Dreyfus</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Paccar</t>
+          <t>Lowe's</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pacific Construction Group</t>
+          <t>Lukoil</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Pegatron</t>
+          <t>LyondellBasell Industries</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Pemex</t>
+          <t>MS&amp;AD Insurance Group Holdings</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Maersk Group</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Performance Food Group</t>
+          <t>Magna International</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Pertamina</t>
+          <t>Marathon Petroleum</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Petronas</t>
+          <t>Marubeni</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Phillips 66</t>
+          <t>Massachusetts Mutual Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Plains GP Holdings</t>
+          <t>McKesson</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Publix Super Markets</t>
+          <t>Meiji Yasuda Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>Meituan</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>Mercadona</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Rabobank Group</t>
+          <t>Meta Platforms</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Raizen</t>
+          <t>Midea Group</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Reliance Industries</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Repsol</t>
+          <t>Mitsubishi Electric</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Rio Tinto Group</t>
+          <t>Mitsubishi Heavy Industries</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Roche Group</t>
+          <t>Mitsubishi UFJ Financial Group</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Royal Ahold Delhaize</t>
+          <t>Mitsui</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Molina Healthcare</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Samsung Electronics</t>
+          <t>Mondelez International</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Saudi Aramco</t>
+          <t>Netflix</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Schlumberger</t>
+          <t>New Hope Holding Group</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Seven &amp; I Holdings</t>
+          <t>New York Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Shaanxi Yanchang Petroleum (Group)</t>
+          <t>Nike</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Shandong Hi-Speed Group</t>
+          <t>Nippon Life Insurance</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Shanghai Construction Group</t>
+          <t>Northrop Grumman</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Shanghai Delong Steel Group</t>
+          <t>Northwestern Mutual</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Novo Nordisk</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Shenghong Holding Group</t>
+          <t>Nvidia</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Shenzhen Investment Holdings</t>
+          <t>OMV Group</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Shudao Investment Group</t>
+          <t>Oil &amp; Natural Gas</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sinomach</t>
+          <t>Olam Group</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Standard Chartered</t>
+          <t>Oracle</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>Orange</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>State Farm Insurance</t>
+          <t>Orlen</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>State Grid</t>
+          <t>PDD Holdings</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Stellantis</t>
+          <t>Paccar</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>StoneX Group</t>
+          <t>Pacific Construction Group</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sumitomo Mitsui Financial Group</t>
+          <t>Panasonic Holdings</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Suncor Energy</t>
+          <t>Pegatron</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Susun Construction Group</t>
+          <t>Pemex</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sysco</t>
+          <t>People's Insurance Co. of China</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>TD Synnex</t>
+          <t>PepsiCo</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TIAA</t>
+          <t>Performance Food Group</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>Pertamina</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Taikang Insurance Group</t>
+          <t>Petronas</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Taiwan Semiconductor Manufacturing</t>
+          <t>Phillips 66</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Plains GP Holdings</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Tata Motors</t>
+          <t>PowerChina</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Publix Super Markets</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>Qualcomm</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tsingshan Holding Group</t>
+          <t>RTX</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Tyson Foods</t>
+          <t>Rabobank Group</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>U.S. Bancorp</t>
+          <t>Raizen</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>U.S. Postal Service</t>
+          <t>Reliance Industries</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>UBS Group</t>
+          <t>Repsol</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>US Foods Holding</t>
+          <t>Rio Tinto Group</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>USAA</t>
+          <t>Roche Group</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Uber Technologies</t>
+          <t>Royal Ahold Delhaize</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>UniCredit Group</t>
+          <t>S.F. Holding</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Unilever</t>
+          <t>SAIC Motor</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>United Airlines Holdings</t>
+          <t>Salesforce</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>UnitedHealth Group</t>
+          <t>Samsung Electronics</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>VTB Bank</t>
+          <t>Saudi Aramco</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Vale</t>
+          <t>Schlumberger</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Veolia Environnement</t>
+          <t>Seven &amp; I Holdings</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Verizon Communications</t>
+          <t>Shaanxi Yanchang Petroleum (Group)</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Vodafone Group</t>
+          <t>Shandong Energy Group</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Walgreens Boots Alliance</t>
+          <t>Shandong Hi-Speed Group</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Shanghai Construction Group</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Walt Disney</t>
+          <t>Shanghai Delong Steel Group</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery</t>
+          <t>Shanghai Pharmaceuticals Holding</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Wilmar International</t>
+          <t>Shanghai Pudong Development Bank</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>World Kinect</t>
+          <t>Shell</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Wuchan Zhongda Group</t>
+          <t>Shenghong Holding Group</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>XMXYG</t>
+          <t>Shenzhen Investment Holdings</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Xiamen C&amp;D</t>
+          <t>Shudao Investment Group</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Zhejiang Communications Investment Group</t>
+          <t>Sinomach</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Zhejiang Hengyi Group</t>
+          <t>Sinopharm</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Starbucks</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>State Farm Insurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>State Grid</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>State Power Investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Stellantis</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>StoneX Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Sumitomo Mitsui Financial Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Suncor Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Susun Construction Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Sysco</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>TD Synnex</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>TIAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Taikang Insurance Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Taiwan Semiconductor Manufacturing</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Tata Motors</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Toyota Tsusho</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Tsingshan Holding Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Tyson Foods</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>U.S. Bancorp</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>U.S. Postal Service</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>UBS Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>US Foods Holding</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>USAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Uber Technologies</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>UniCredit Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Unilever</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>United Airlines Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>UnitedHealth Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>VTB Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Vale</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Veolia Environnement</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Verizon Communications</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Vodafone Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Walgreens Boots Alliance</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Walt Disney</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Warner Bros. Discovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Wilmar International</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>World Kinect</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Wuchan Zhongda Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>XMXYG</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Xiamen C&amp;D</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Xiamen ITG Holding Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Zhejiang Communications Investment Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Zhejiang Hengyi Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
         <is>
           <t>Zhejiang Rongsheng Holding Group</t>
         </is>

--- a/cn_companies_by_transition.xlsx
+++ b/cn_companies_by_transition.xlsx
@@ -1210,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,6 +1224,41 @@
           <t>Company</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2024_NZ</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2024_CN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024_CC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025_SBTi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025_Net_Zero</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025_CN</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2025_Carbon_Credits</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1231,6 +1266,31 @@
           <t>ACS</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1238,6 +1298,33 @@
           <t>AT&amp;T</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1245,6 +1332,35 @@
           <t>AXA</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1252,6 +1368,35 @@
           <t>Allianz</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1259,6 +1404,35 @@
           <t>American Express</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1266,6 +1440,35 @@
           <t>ArcelorMittal</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1273,6 +1476,35 @@
           <t>BMW Group</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1280,6 +1512,35 @@
           <t>Banco Bilbao Vizcaya Argentaria</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1287,6 +1548,35 @@
           <t>Banco Bradesco</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1294,6 +1584,35 @@
           <t>Banco Santander</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1301,6 +1620,33 @@
           <t>Banco do Brasil</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1308,6 +1654,35 @@
           <t>Bank of America</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1315,6 +1690,35 @@
           <t>Bank of Montreal</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1322,6 +1726,35 @@
           <t>Bank of Nova Scotia</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1329,6 +1762,35 @@
           <t>Bayer</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1336,6 +1798,35 @@
           <t>Best Buy</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1343,6 +1834,33 @@
           <t>Boeing</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1350,6 +1868,31 @@
           <t>CRRC Group</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1357,6 +1900,33 @@
           <t>CVS Health</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1364,6 +1934,35 @@
           <t>Canadian Imperial Bank of Commerce</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1371,6 +1970,31 @@
           <t>Capital One Financial</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1378,6 +2002,31 @@
           <t>China Baowu Steel Group</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1385,6 +2034,33 @@
           <t>China National Offshore Oil</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1392,6 +2068,35 @@
           <t>Commonwealth Bank of Australia</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1399,6 +2104,35 @@
           <t>Compass Group</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1406,6 +2140,31 @@
           <t>Contemporary Amperex Technology</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1413,6 +2172,33 @@
           <t>Credit Agricole</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1420,6 +2206,33 @@
           <t>DZ Bank</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1427,6 +2240,35 @@
           <t>Delta Air Lines</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1434,6 +2276,31 @@
           <t>Deutsche Bahn</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1441,6 +2308,35 @@
           <t>ENI</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1448,6 +2344,33 @@
           <t>Elevance Health</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1455,6 +2378,33 @@
           <t>Equinor</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1462,6 +2412,31 @@
           <t>General Dynamics</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1469,6 +2444,35 @@
           <t>Goldman Sachs Group</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1476,6 +2480,33 @@
           <t>Groupe BPCE</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1483,6 +2514,31 @@
           <t>HBIS Group</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1490,6 +2546,35 @@
           <t>HP</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1497,6 +2582,33 @@
           <t>Heineken</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1504,6 +2616,35 @@
           <t>ING Group</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1511,6 +2652,35 @@
           <t>Iberdrola</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1518,6 +2688,33 @@
           <t>Ingka Group</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1525,6 +2722,33 @@
           <t>Intesa Sanpaolo</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1532,6 +2756,35 @@
           <t>JPMorgan Chase</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1539,6 +2792,33 @@
           <t>Johnson &amp; Johnson</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1546,6 +2826,33 @@
           <t>KDDI</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1553,6 +2860,35 @@
           <t>LG Chem</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1560,6 +2896,33 @@
           <t>Landesbank Baden-Wurttemberg</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1567,6 +2930,33 @@
           <t>Merck</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1574,6 +2964,35 @@
           <t>MetLife</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1581,6 +3000,31 @@
           <t>Metro</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1588,6 +3032,35 @@
           <t>Migros Group</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1595,6 +3068,33 @@
           <t>Mizuho Financial Group</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1602,6 +3102,35 @@
           <t>Morgan Stanley</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1609,6 +3138,35 @@
           <t>Munich Re Group</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1616,6 +3174,35 @@
           <t>National Australia Bank</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1623,6 +3210,35 @@
           <t>Nationwide</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1630,6 +3246,35 @@
           <t>Novartis</t>
         </is>
       </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1637,6 +3282,31 @@
           <t>PBF Energy</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1644,6 +3314,31 @@
           <t>POSCO Holdings</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1651,6 +3346,35 @@
           <t>PTT</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1658,6 +3382,33 @@
           <t>Petrobras</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1665,6 +3416,35 @@
           <t>Pfizer</t>
         </is>
       </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1672,6 +3452,35 @@
           <t>Philip Morris International</t>
         </is>
       </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1679,6 +3488,35 @@
           <t>Procter &amp; Gamble</t>
         </is>
       </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1686,6 +3524,35 @@
           <t>Prudential Financial</t>
         </is>
       </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1693,6 +3560,35 @@
           <t>Royal Bank of Canada</t>
         </is>
       </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1700,6 +3596,35 @@
           <t>SAP</t>
         </is>
       </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1707,6 +3632,33 @@
           <t>SK</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1714,6 +3666,33 @@
           <t>SNCF Group</t>
         </is>
       </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1721,6 +3700,33 @@
           <t>Saint-Gobain</t>
         </is>
       </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1728,6 +3734,35 @@
           <t>Sanofi</t>
         </is>
       </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1735,6 +3770,35 @@
           <t>Schneider Electric</t>
         </is>
       </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1742,6 +3806,35 @@
           <t>Siemens</t>
         </is>
       </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1749,6 +3842,33 @@
           <t>Siemens Energy</t>
         </is>
       </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1756,6 +3876,35 @@
           <t>SoftBank Group</t>
         </is>
       </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1763,6 +3912,35 @@
           <t>Sompo Holdings</t>
         </is>
       </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1770,6 +3948,35 @@
           <t>Swiss Re</t>
         </is>
       </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1777,6 +3984,35 @@
           <t>Talanx</t>
         </is>
       </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1784,6 +4020,35 @@
           <t>Telefonica</t>
         </is>
       </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1791,6 +4056,35 @@
           <t>Tesco</t>
         </is>
       </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1798,6 +4092,35 @@
           <t>Tokio Marine Holdings</t>
         </is>
       </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1805,6 +4128,33 @@
           <t>Tongwei Group</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1812,6 +4162,35 @@
           <t>Toronto-Dominion Bank</t>
         </is>
       </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1819,6 +4198,33 @@
           <t>TotalEnergies</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1826,6 +4232,33 @@
           <t>Uniper</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1833,6 +4266,33 @@
           <t>Vinci</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1840,6 +4300,33 @@
           <t>Visa</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1847,6 +4334,31 @@
           <t>Volvo</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1854,11 +4366,69 @@
           <t>Wells Fargo</t>
         </is>
       </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
           <t>Zurich Insurance Group</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
